--- a/biology/Écologie/Substance_active_(biocide)/Substance_active_(biocide).xlsx
+++ b/biology/Écologie/Substance_active_(biocide)/Substance_active_(biocide).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour le contexte des biocides, pesticides ou produits phytosanitaires, la Directive européenne biocide définit une substance active comme « une substance ou un micro-organisme, y compris un virus ou un champignon, exerçant une action générale ou spécifique sur ou contre les organismes nuisibles ».
 </t>
@@ -511,7 +523,9 @@
           <t>Adjuvants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La matière ou substance, ou molécule active ne peut généralement pas pénétrer facilement à l'intérieur des cellules qu'elles doivent tuer. Elle est pour cette raison généralement accompagnée (dans une « formulation ») d'un surfactant et d'additifs destinés à la stabiliser, et/ou à favoriser sa pénétration dans l'organisme-cible.
 La toxicité environnementale d'un pesticide peut être due aux additifs ou à un surfactant, plus qu'à la molécule active.
@@ -544,7 +558,9 @@
           <t>Mise sur le marché</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'Union européenne, aux États-Unis et dans la plupart des pays disposant d'une législation environnementale avancée, ces produits doivent faite l'objet d'une autorisation de mise sur le marché, qui n'est délivrée qu'à certaines conditions, pour certaines formulations, et pour des usages spécifiques (chaque formulation de pesticide est « homologuée » pour certains usages).
 </t>
